--- a/10x_datalist_easy.xlsx
+++ b/10x_datalist_easy.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengx\Desktop\公司\workflow\收包\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengx\Desktop\公司\workflow\收包\interns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B78CA812-B151-4FB9-8B54-5A8DE3D1FF56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDECE818-2A28-4D10-8720-7BDDDC113AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="10x_datalist_easy" sheetId="1" r:id="rId1"/>
+    <sheet name="human_shilu" sheetId="2" r:id="rId1"/>
+    <sheet name="10x_datalist_easy" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
   <si>
     <t>Peripheral blood mononuclear cells (PBMCs) from a healthy donor 鈥?Chromium Connect (channel 1)</t>
   </si>
@@ -218,12 +219,150 @@
   </si>
   <si>
     <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/3.0.0/pbmc_1k_v2</t>
+  </si>
+  <si>
+    <t>50%:50% Donor B: Donor C PBMC Mixture</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/frozen_pbmc_b_c_50_50</t>
+  </si>
+  <si>
+    <t>CD8+ Cytotoxic T cells</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/cytotoxic_t</t>
+  </si>
+  <si>
+    <t>33k PBMCs from a Healthy Donor</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/pbmc33k</t>
+  </si>
+  <si>
+    <t>Frozen BMMCs (Healthy Control 1)</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/frozen_bmmc_healthy_donor1</t>
+  </si>
+  <si>
+    <t>CD14+ Monocytes</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/cd14_monocytes</t>
+  </si>
+  <si>
+    <t>90%:10% Donor B: Donor C PBMC Mixture</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/frozen_pbmc_b_c_90_10</t>
+  </si>
+  <si>
+    <t>4k PBMCs from a Healthy Donor</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/2.0.1/pbmc4k</t>
+  </si>
+  <si>
+    <t>CD4+ Helper T Cells</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/cd4_t_helper</t>
+  </si>
+  <si>
+    <t>3k PBMCs from a Healthy Donor</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/pbmc3k</t>
+  </si>
+  <si>
+    <t>CD4+/CD25+ Regulatory T Cells</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/regulatory_t</t>
+  </si>
+  <si>
+    <t>CD4+/CD45RA+/CD25- Naive T cells</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/naive_t</t>
+  </si>
+  <si>
+    <t>CD34+ Cells</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/cd34</t>
+  </si>
+  <si>
+    <t>CD4+/CD45RO+ Memory T Cells</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/memory_t</t>
+  </si>
+  <si>
+    <t>6k PBMCs from a Healthy Donor</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/pbmc6k</t>
+  </si>
+  <si>
+    <t>99%:1% Donor B: Donor C PBMC Mixture</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/frozen_pbmc_b_c_99_1</t>
+  </si>
+  <si>
+    <t>Fresh 68k PBMCs (Donor A)</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/fresh_68k_pbmc_donor_a</t>
+  </si>
+  <si>
+    <t>CD56+ Natural Killer Cells</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/cd56_nk</t>
+  </si>
+  <si>
+    <t>Frozen PBMCs (Donor B)</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/frozen_pbmc_donor_b</t>
+  </si>
+  <si>
+    <t>Frozen BMMCs (Healthy Control 2)</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/frozen_bmmc_healthy_donor2</t>
+  </si>
+  <si>
+    <t>CD19+ B Cells</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/b_cells</t>
+  </si>
+  <si>
+    <t>Frozen PBMCs (Donor C)</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/frozen_pbmc_donor_c</t>
+  </si>
+  <si>
+    <t>Frozen PBMCs (Donor A)</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/frozen_pbmc_donor_a</t>
+  </si>
+  <si>
+    <t>CD8+/CD45RA+ Naive Cytotoxic T Cells</t>
+  </si>
+  <si>
+    <t>https://support.10xgenomics.com/single-cell-gene-expression/datasets/1.1.0/naive_cytotoxic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1168,10 +1307,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49342BC-951D-4CC3-9775-95D2EF2FD48F}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
